--- a/Конспект_SQL.xlsx
+++ b/Конспект_SQL.xlsx
@@ -5,22 +5,30 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Work\__Документы\__Учеба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D5968-9814-479C-AC49-FC9DCC896DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B8755C-A296-4332-BFBF-041D75CB347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="3850" windowWidth="15320" windowHeight="15370" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="12540" yWindow="550" windowWidth="22970" windowHeight="20420" tabRatio="728" activeTab="1" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Тип данных" sheetId="10" r:id="rId1"/>
     <sheet name="Операторы" sheetId="1" r:id="rId2"/>
-    <sheet name="Примеры" sheetId="9" r:id="rId3"/>
+    <sheet name="Атрибуты" sheetId="9" r:id="rId3"/>
+    <sheet name="markdown" sheetId="7" r:id="rId4"/>
+    <sheet name="Распаковка списков" sheetId="6" r:id="rId5"/>
+    <sheet name="Условия" sheetId="5" r:id="rId6"/>
+    <sheet name="Функции" sheetId="2" r:id="rId7"/>
+    <sheet name="Циклы" sheetId="3" r:id="rId8"/>
+    <sheet name="Генераторы списков" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Атрибуты!$A$1:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Операторы!$A$1:$C$295</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Примеры!$A$1:$D$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Тип данных'!$A$1:$D$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="223">
   <si>
     <t>Функция</t>
   </si>
@@ -50,6 +58,9 @@
     <t>Краткое описание</t>
   </si>
   <si>
+    <t>Библиотека</t>
+  </si>
+  <si>
     <t>pandas</t>
   </si>
   <si>
@@ -65,7 +76,477 @@
     <t>Целые числа</t>
   </si>
   <si>
+    <t>x = ("Yes" if p == 1 else "Нет или не уверен")</t>
+  </si>
+  <si>
+    <t>if p == 1:
+    print('Да! p = 1')
+elif p == 0:
+    print('Нет! p = 0')
+else:
+    print("Не уверен! не знаю чему равно p")</t>
+  </si>
+  <si>
+    <t>for i in range(10):
+    print(i, end=" ")</t>
+  </si>
+  <si>
+    <t>print([line.split(': ') for line in s1.split('\n') if line])</t>
+  </si>
+  <si>
+    <t>x, y = (1, "а")</t>
+  </si>
+  <si>
+    <t>my_list = ["А", 2, None]
+x, y, z = my_list</t>
+  </si>
+  <si>
+    <t>my_list = [(1, 1), (2, 0), (3, 4), (1, -1), (2, 2)]
+print(sorted(my_list, key=lambda x: x[1]))</t>
+  </si>
+  <si>
+    <t>print("\n".join([" ".join(line.split(': ')) for line in s2.split('\n') if line]))</t>
+  </si>
+  <si>
+    <t>for index, value in enumerate(my_list):
+    print(index, value)</t>
+  </si>
+  <si>
+    <t>Обычная функция</t>
+  </si>
+  <si>
+    <t>lambda функция</t>
+  </si>
+  <si>
+    <t>def func(p, f, S, L): 
+    return S * (1 + p / f) ** (f * L) - S</t>
+  </si>
+  <si>
+    <t>def func(x, y):
+    if z &gt; y:
+        return 'First'
+    elif x &lt; y:
+        return 'Second'
+    else: 
+        return 'Equal'</t>
+  </si>
+  <si>
+    <t>def func(x):
+    return x + 1</t>
+  </si>
+  <si>
+    <t>def func(x, y): 
+    return x + y</t>
+  </si>
+  <si>
+    <t>func = lambda x: x + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">func = lambda x, y: x + y </t>
+  </si>
+  <si>
+    <t>my_list = [0, 0, -1, -2, -3, 4, 3, 2, 5] 
+print(list(map(lambda x: abs(x), my_list)))</t>
+  </si>
+  <si>
+    <t>func = lambda p, f, S, L: S * (1 + p / f) ** (f * L) - S</t>
+  </si>
+  <si>
+    <t>my_list = [1, 2, 3, 4, 5]
+print(list(map(lambda x: x**2, my_list)))
+for item in map(lambda x: x ** 2, my_list):
+    print(item, end=' ')</t>
+  </si>
+  <si>
+    <t>a = [1, 2, 3, 4, 5]
+b = [6, 7, 8, 9, 10]
+print(list(map(lambda x, y: x * y, a, b)), "- Перемножение списков")
+print(list(map(lambda x, y: x + y, a, b)), "- Пересложение списков")</t>
+  </si>
+  <si>
+    <t>my_list = [0, 0, -1, -2, -3, 4, 3, 2, 5]
+print(list(filter(lambda x: x&lt;=0, my_list)))</t>
+  </si>
+  <si>
+    <t># Если использовать круглые скобки, то X = &lt;class 'generator'&gt;</t>
+  </si>
+  <si>
+    <t>x = (k ** 2 for k in range(2, 12, 3))</t>
+  </si>
+  <si>
     <t>Пример</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Расшифровывается как: Для каждого К от 2 до 12 c шагом 3, вернуть K**2 </t>
+  </si>
+  <si>
+    <t>x = [k ** 2 for k in range(2, 12, 3)]</t>
+  </si>
+  <si>
+    <t># Для каждого К от 2 до 12 с шагом 3, вернуть К**2 если K!=8</t>
+  </si>
+  <si>
+    <t>x = [k ** 2 for k in range(2, 12, 3) if k != 8]</t>
+  </si>
+  <si>
+    <t>Описать</t>
+  </si>
+  <si>
+    <t>list = [x for x in range(1, 21) if x &gt; 1 and all(x % i != 0 for i in range(2, x))]</t>
+  </si>
+  <si>
+    <t>.value_counts()</t>
+  </si>
+  <si>
+    <t>.sum()</t>
+  </si>
+  <si>
+    <t>dropna учитывает в подсчете пропущенные значения. Применяется к статистикам</t>
+  </si>
+  <si>
+    <t>Возвращает частоту упоминания значений. Применяется к статистикам</t>
+  </si>
+  <si>
+    <t>axis=1/0</t>
+  </si>
+  <si>
+    <t>df.dropna()</t>
+  </si>
+  <si>
+    <t>Удаляет все строчки в которых есть хотя бы одно пропущенное значение</t>
+  </si>
+  <si>
+    <t>Удаляет все столбцы в которых есть хотя бы одно пропущенное значение</t>
+  </si>
+  <si>
+    <t>Удаляет строки только из пустых значений</t>
+  </si>
+  <si>
+    <t>Устанавливает разделитель при считывании CSV файла</t>
+  </si>
+  <si>
+    <t>Задает столбец с индексами. Применяется к DataFrame, CSV</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>Применяется для .concat(), нумерует индексы заново сквозным образом</t>
+  </si>
+  <si>
+    <t>print()</t>
+  </si>
+  <si>
+    <t>pd.concat()</t>
+  </si>
+  <si>
+    <t>df.drop()</t>
+  </si>
+  <si>
+    <t>Производит запись виртуальных действий в таблицу. Применяется к любым воздействиям на DF</t>
+  </si>
+  <si>
+    <t>Задает количество строк которое считается из файла</t>
+  </si>
+  <si>
+    <t>Указывает ось для проведения операций. Применяется к любым табличным операциям</t>
+  </si>
+  <si>
+    <t>Без аттрибутов</t>
+  </si>
+  <si>
+    <t>Задает тип джойна</t>
+  </si>
+  <si>
+    <t>Поле для джойна левой таблицы</t>
+  </si>
+  <si>
+    <t>Индекс для джойна левой таблицы</t>
+  </si>
+  <si>
+    <t>Поле для джойна правой таблицы</t>
+  </si>
+  <si>
+    <t>Индекс для джойна правой таблицы</t>
+  </si>
+  <si>
+    <t>on='colname'</t>
+  </si>
+  <si>
+    <t>Добавить суффиксы к заголовка в сшитой таблице</t>
+  </si>
+  <si>
+    <t>Общее поле для двух таблиц для джойна</t>
+  </si>
+  <si>
+    <t>pd.merge(DFname1, DFname2)</t>
+  </si>
+  <si>
+    <t>pd.read_csv('filename')</t>
+  </si>
+  <si>
+    <t>.split('val')</t>
+  </si>
+  <si>
+    <t>Указывает сколько раз проходит операция разбиения</t>
+  </si>
+  <si>
+    <t>Атрибут expand=True раскидывает результат Series в DataFrame по разделителю</t>
+  </si>
+  <si>
+    <t>Читает указанный лист из файла Excel</t>
+  </si>
+  <si>
+    <t>pd.read_excel('filename.xls')</t>
+  </si>
+  <si>
+    <t>pd.to_datetime()</t>
+  </si>
+  <si>
+    <t>infer_datetime_format = True</t>
+  </si>
+  <si>
+    <t>df.set_index('colname')</t>
+  </si>
+  <si>
+    <t>Считывает все листы из файла Excel в словарь содержащий DF</t>
+  </si>
+  <si>
+    <t>Указывает ось для склейки</t>
+  </si>
+  <si>
+    <t>open('filename')</t>
+  </si>
+  <si>
+    <t>'r'</t>
+  </si>
+  <si>
+    <t>Открываем файл на чтение</t>
+  </si>
+  <si>
+    <t>Открываем файл на запись</t>
+  </si>
+  <si>
+    <t>plt.plot(data)</t>
+  </si>
+  <si>
+    <t>Вывести график со стандартными параметрами</t>
+  </si>
+  <si>
+    <t>Вывести график в зеленом цвете. Так же: blue/red/cyan/magenta/yellow/black/white</t>
+  </si>
+  <si>
+    <t>Вывести график в черном цвете. Так же: 0.1/0.2/0.3 … 0.8/0.9/1</t>
+  </si>
+  <si>
+    <t>color = '#ff00ff'</t>
+  </si>
+  <si>
+    <t>color = '0'</t>
+  </si>
+  <si>
+    <t>color = 'green'</t>
+  </si>
+  <si>
+    <t>left_on = 'colname'</t>
+  </si>
+  <si>
+    <t>right_on = 'colname</t>
+  </si>
+  <si>
+    <t>left_index = True</t>
+  </si>
+  <si>
+    <t>right_index = True</t>
+  </si>
+  <si>
+    <t>suffixes = ('val1', 'val2')</t>
+  </si>
+  <si>
+    <t>index_col = 'val'</t>
+  </si>
+  <si>
+    <t>nrows = int</t>
+  </si>
+  <si>
+    <t>sep = 'val'</t>
+  </si>
+  <si>
+    <t>sheet_name = 'val'</t>
+  </si>
+  <si>
+    <t>sheet_name = None</t>
+  </si>
+  <si>
+    <t>how = 'all'</t>
+  </si>
+  <si>
+    <t>inplace = True</t>
+  </si>
+  <si>
+    <t>dropna = False</t>
+  </si>
+  <si>
+    <t>normalize = True</t>
+  </si>
+  <si>
+    <t>expand = True</t>
+  </si>
+  <si>
+    <t>n = int</t>
+  </si>
+  <si>
+    <t>axis = 1</t>
+  </si>
+  <si>
+    <t>ignore_index = True</t>
+  </si>
+  <si>
+    <t>how = 'outer/inner/left/right'</t>
+  </si>
+  <si>
+    <t>Вывести график в RGB кодировке</t>
+  </si>
+  <si>
+    <t>'^'</t>
+  </si>
+  <si>
+    <t>'w'</t>
+  </si>
+  <si>
+    <t>linewidth = 4.0</t>
+  </si>
+  <si>
+    <t>Задать толщину линий</t>
+  </si>
+  <si>
+    <t>alpha = 0.6</t>
+  </si>
+  <si>
+    <t>Задать прозрачность линий. Так же: 0.1/0.2/0.3 … 0.8/0.9/1</t>
+  </si>
+  <si>
+    <t>plt.figure()</t>
+  </si>
+  <si>
+    <t>Задать размер выводимого поля</t>
+  </si>
+  <si>
+    <t>plt.title('Caption')</t>
+  </si>
+  <si>
+    <t>Поменять шрифт заголовка. Так же: Verdana / Tahoma / Lucida Grande</t>
+  </si>
+  <si>
+    <t>fontsize = int</t>
+  </si>
+  <si>
+    <t>Задает размер текста</t>
+  </si>
+  <si>
+    <t>family = 'calibri'</t>
+  </si>
+  <si>
+    <t>figsize = (4, 3)</t>
+  </si>
+  <si>
+    <t>fontweight = 'bold'</t>
+  </si>
+  <si>
+    <t>Толщина текста</t>
+  </si>
+  <si>
+    <t>rotation = 'horizontal'</t>
+  </si>
+  <si>
+    <t>Поворот текста</t>
+  </si>
+  <si>
+    <t>Сменить тип линий. Так же: '--' / '*' / 'D' / 'H' / '-' / 'o'</t>
+  </si>
+  <si>
+    <t>plt.annotate('text')</t>
+  </si>
+  <si>
+    <t>xytext = (1, 4)</t>
+  </si>
+  <si>
+    <t>xy = (2, 2)</t>
+  </si>
+  <si>
+    <t>arrowprops = dict(facecolor='black', shrink=0.05))</t>
+  </si>
+  <si>
+    <t>Координаты начала стрелки</t>
+  </si>
+  <si>
+    <t>Координаты текста и конца стрелки</t>
+  </si>
+  <si>
+    <t>Цвет и доля общей длины стрелки</t>
+  </si>
+  <si>
+    <t>label = 'val'</t>
+  </si>
+  <si>
+    <t>plt.legend()</t>
+  </si>
+  <si>
+    <t>loc = 2</t>
+  </si>
+  <si>
+    <t>Определяет место вывода легенды</t>
+  </si>
+  <si>
+    <t>Pадает легенду выводимого графика</t>
+  </si>
+  <si>
+    <t>plt.pie(data)</t>
+  </si>
+  <si>
+    <t>labels = df['colname']</t>
+  </si>
+  <si>
+    <t>Добавляет заголовки к диаграме</t>
+  </si>
+  <si>
+    <t>Форматированный вывод значений</t>
+  </si>
+  <si>
+    <t>Отделяем кусок диаграммы</t>
+  </si>
+  <si>
+    <t>Тень</t>
+  </si>
+  <si>
+    <t>shadow = True</t>
+  </si>
+  <si>
+    <t>explode = [0, 0.2, 0]</t>
+  </si>
+  <si>
+    <t>autopct = '%1.1f%%'</t>
+  </si>
+  <si>
+    <t>startangle = 90</t>
+  </si>
+  <si>
+    <t>Стартовый угол поворота</t>
+  </si>
+  <si>
+    <t>plt.hist(data)</t>
+  </si>
+  <si>
+    <t>bins = 10</t>
+  </si>
+  <si>
+    <t>Количество сегментов</t>
+  </si>
+  <si>
+    <t>loc = 'upper right'</t>
   </si>
   <si>
     <t>DML</t>
@@ -267,19 +748,13 @@
   </si>
   <si>
     <t>Выводит описание таблицы</t>
-  </si>
-  <si>
-    <t>SELECT * FROM Table</t>
-  </si>
-  <si>
-    <t>Выбрать все столбцы из таблицы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +762,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -353,26 +843,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,115 +1202,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.54296875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="16" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.54296875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
+      <c r="A3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
+      <c r="A4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
+      <c r="A6" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
+      <c r="A7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="A8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="269" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:D294" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,263 +1323,263 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.453125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
+      <c r="A2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
+      <c r="A4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+      <c r="A6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+      <c r="A7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+      <c r="A8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
+      <c r="A9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
+      <c r="A10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
+      <c r="A11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
+      <c r="A12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
+      <c r="A13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
+      <c r="A14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
+      <c r="A15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
+      <c r="A16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
+      <c r="A17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
+      <c r="A18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
+      <c r="A19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
+      <c r="A20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
+      <c r="A21" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
+      <c r="A22" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" s="2"/>
+      <c r="B270" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C295" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
@@ -1088,100 +1592,1011 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587FCC2-7934-4352-99C9-11C970FBF59E}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="83.90625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="83.90625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="6"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
+      <c r="C27" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D10" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259DC79C-9BAA-4C8B-99FF-F93C9194C70F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D13DA-3D07-4C11-84FF-BB5D8962E040}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="103.1796875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF16D9A-2AFF-418B-B6EF-6574DC3419E2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.1796875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809C98DC-D97E-4E08-93F8-C6E62F565ADA}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.81640625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{809C98DC-D97E-4E08-93F8-C6E62F565ADA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E42550-ED0C-4E5E-8781-47DFC06695E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D604A-5D83-4D5B-B5A0-129B89C36C29}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="94.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.26953125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{859D604A-5D83-4D5B-B5A0-129B89C36C29}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Конспект_SQL.xlsx
+++ b/Конспект_SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D5968-9814-479C-AC49-FC9DCC896DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FBE21-4B71-4AAD-A181-158F1E5EB150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="3850" windowWidth="15320" windowHeight="15370" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="230" yWindow="1580" windowWidth="17780" windowHeight="19020" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Тип данных" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Операторы!$A$1:$C$295</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Примеры!$A$1:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Примеры!$A$1:$C$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Тип данных'!$A$1:$D$294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,18 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>Функция</t>
   </si>
   <si>
     <t>Краткое описание</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>python</t>
   </si>
   <si>
     <t>Тип</t>
@@ -269,10 +263,31 @@
     <t>Выводит описание таблицы</t>
   </si>
   <si>
-    <t>SELECT * FROM Table</t>
-  </si>
-  <si>
-    <t>Выбрать все столбцы из таблицы</t>
+    <t>SELECT * FROM table;</t>
+  </si>
+  <si>
+    <t>Выбрать все столбцы из таблицы "table"</t>
+  </si>
+  <si>
+    <t>Выбрать определенные столбец(цы) из таблицы "table"</t>
+  </si>
+  <si>
+    <t>SELECT column, column(s) FROM table;</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT colmun FROM table;</t>
+  </si>
+  <si>
+    <t>Выбрать уникальные значения из одного столбца</t>
+  </si>
+  <si>
+    <t>Выбрать уникальные значения из списка столбцов, действует на совокупность значений</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT colmun, column(s) FROM table;</t>
   </si>
 </sst>
 </file>
@@ -353,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,7 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -707,13 +721,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -721,89 +735,89 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -834,10 +848,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -845,233 +859,233 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
@@ -1086,79 +1100,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587FCC2-7934-4352-99C9-11C970FBF59E}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="83.90625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="51.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.90625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="6"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -1180,7 +1204,7 @@
       <c r="B54" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D10" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
+  <autoFilter ref="A1:C10" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Конспект_SQL.xlsx
+++ b/Конспект_SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FBE21-4B71-4AAD-A181-158F1E5EB150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04274B32-F934-4DF3-A376-F8440ABFCC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="230" yWindow="1580" windowWidth="17780" windowHeight="19020" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
   <si>
     <t>Функция</t>
   </si>
@@ -288,6 +288,63 @@
   </si>
   <si>
     <t>SELECT DISTINCT colmun, column(s) FROM table;</t>
+  </si>
+  <si>
+    <t>SELECT column(s), expression(s) FROM table;</t>
+  </si>
+  <si>
+    <t>EXPRESSIONS</t>
+  </si>
+  <si>
+    <t>SELECT column*5 FROM table;</t>
+  </si>
+  <si>
+    <t>Выражения применяемые к столбцам при выводе</t>
+  </si>
+  <si>
+    <t>SELECT column1*2+column2 FROM table;</t>
+  </si>
+  <si>
+    <t>Умножаем значения стиолбца column1 * 2 и прибавляем значения столбца column2</t>
+  </si>
+  <si>
+    <t>Все значения столбца column * на 5</t>
+  </si>
+  <si>
+    <t>SELECT date1-date2 FROM table;</t>
+  </si>
+  <si>
+    <t>При вычитании получаем количество дней</t>
+  </si>
+  <si>
+    <t>SELECT date+7 FROM table;</t>
+  </si>
+  <si>
+    <t>Результатом будет дата увелчияенная на 7 дней</t>
+  </si>
+  <si>
+    <t>SELECT column1||column2 FROM table;</t>
+  </si>
+  <si>
+    <t>Конкатенация текстовых данных из двух столбцов</t>
+  </si>
+  <si>
+    <t>SELECT column1||'Текст'||column2 FROM table;</t>
+  </si>
+  <si>
+    <t>Конкатенация текстовых данных из двух столбцов и произвольного текста</t>
+  </si>
+  <si>
+    <t>ALIAS</t>
+  </si>
+  <si>
+    <t>Альтернативное имя для столбца или целого выражения</t>
+  </si>
+  <si>
+    <t>SELECT columns(s) AS "alias", expression(s) AS "alias" FROM table;</t>
+  </si>
+  <si>
+    <t>SELECT columns(s) "alias", expression(s) "alias" FROM table;</t>
   </si>
 </sst>
 </file>
@@ -1104,13 +1161,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.90625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
@@ -1170,6 +1227,105 @@
         <v>79</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
